--- a/Mô hình vật lý StudentDaily.xlsx
+++ b/Mô hình vật lý StudentDaily.xlsx
@@ -5,14 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\TL Hoc Tap\HKI 2018 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\LuanVanTotNghiep2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="CSDL" sheetId="1" r:id="rId1"/>
+    <sheet name="Loại điểm" sheetId="5" r:id="rId2"/>
+    <sheet name="Hình thức" sheetId="4" r:id="rId3"/>
+    <sheet name="Loại tài liệu" sheetId="3" r:id="rId4"/>
+    <sheet name="Học kỳ" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="157">
   <si>
     <t>Tên thuộc tính</t>
   </si>
@@ -74,18 +78,12 @@
     <t>USER</t>
   </si>
   <si>
-    <t>U_MA</t>
-  </si>
-  <si>
     <t>U_TEN</t>
   </si>
   <si>
     <t>U_HINH</t>
   </si>
   <si>
-    <t>U_KHOAHOC</t>
-  </si>
-  <si>
     <t>U_EMAIL</t>
   </si>
   <si>
@@ -104,9 +102,6 @@
     <t>Hình User</t>
   </si>
   <si>
-    <t>Khóa học User</t>
-  </si>
-  <si>
     <t>Email User</t>
   </si>
   <si>
@@ -119,9 +114,6 @@
     <t>NHẬT KÝ</t>
   </si>
   <si>
-    <t>NK_MA</t>
-  </si>
-  <si>
     <t>NK_TEN</t>
   </si>
   <si>
@@ -131,9 +123,6 @@
     <t>DATE</t>
   </si>
   <si>
-    <t>Mã nhật ký</t>
-  </si>
-  <si>
     <t>Tên nhật ký</t>
   </si>
   <si>
@@ -143,57 +132,12 @@
     <t>TÀI LIỆU NHẬT KÝ</t>
   </si>
   <si>
-    <t>TLNK_MA</t>
-  </si>
-  <si>
     <t>TLNK_TEN</t>
   </si>
   <si>
-    <t>Mã tài liệu nhật ký</t>
-  </si>
-  <si>
     <t>Tên tài liệu nhật ký</t>
   </si>
   <si>
-    <t>SỰ KIỆN</t>
-  </si>
-  <si>
-    <t>SK_MA</t>
-  </si>
-  <si>
-    <t>SK_TEN</t>
-  </si>
-  <si>
-    <t>SK_DOUUTIEN</t>
-  </si>
-  <si>
-    <t>SK_NGAYCAPNHAT</t>
-  </si>
-  <si>
-    <t>Mã sự kiện</t>
-  </si>
-  <si>
-    <t>Tên sự kiện</t>
-  </si>
-  <si>
-    <t>Độ ưu tiên sự kiện</t>
-  </si>
-  <si>
-    <t>Ngày cập nhật sự kiện</t>
-  </si>
-  <si>
-    <t>CHI TIẾT SỰ KIỆN</t>
-  </si>
-  <si>
-    <t>CTSK_MA</t>
-  </si>
-  <si>
-    <t>CTSK_NOIDUNG</t>
-  </si>
-  <si>
-    <t>Mã chi tiết sự kiện</t>
-  </si>
-  <si>
     <t>Nội dung chi tiết sự kiện</t>
   </si>
   <si>
@@ -215,9 +159,6 @@
     <t>CHAR(10)</t>
   </si>
   <si>
-    <t>GV_MA</t>
-  </si>
-  <si>
     <t>Mã giảng viên</t>
   </si>
   <si>
@@ -236,36 +177,21 @@
     <t>LOẠI TÀI LIỆU</t>
   </si>
   <si>
-    <t>LTL_MA</t>
-  </si>
-  <si>
     <t>LTL_TEN</t>
   </si>
   <si>
-    <t>Mã loại tài liệu</t>
-  </si>
-  <si>
     <t>Tên loại tài liệu</t>
   </si>
   <si>
     <t>TÀI LIỆU MÔN HỌC</t>
   </si>
   <si>
-    <t>TLMH_MA</t>
-  </si>
-  <si>
-    <t>H_MA</t>
-  </si>
-  <si>
     <t>TLMH_TEN</t>
   </si>
   <si>
     <t>TLMH_NOIDUNG</t>
   </si>
   <si>
-    <t>Mã tài liệu môn học</t>
-  </si>
-  <si>
     <t>Mã học</t>
   </si>
   <si>
@@ -278,39 +204,24 @@
     <t>MÔN HỌC</t>
   </si>
   <si>
-    <t>MH_MA</t>
-  </si>
-  <si>
     <t>MH_TEN</t>
   </si>
   <si>
     <t>HÌNH THỨC</t>
   </si>
   <si>
-    <t>HT_MA</t>
-  </si>
-  <si>
     <t>HT_TEN</t>
   </si>
   <si>
-    <t>Mã hình thức</t>
-  </si>
-  <si>
     <t>Tên hình thức</t>
   </si>
   <si>
     <t>LOẠI ĐIỂM</t>
   </si>
   <si>
-    <t>LD_MA</t>
-  </si>
-  <si>
     <t>LD_TEN</t>
   </si>
   <si>
-    <t>Mã loại điểm</t>
-  </si>
-  <si>
     <t>Tên loại điểm</t>
   </si>
   <si>
@@ -335,9 +246,6 @@
     <t>LỚP</t>
   </si>
   <si>
-    <t>L_MA</t>
-  </si>
-  <si>
     <t>L_TEN</t>
   </si>
   <si>
@@ -350,9 +258,6 @@
     <t>LỊCH THI</t>
   </si>
   <si>
-    <t>LT_MA</t>
-  </si>
-  <si>
     <t>LT_TEN</t>
   </si>
   <si>
@@ -365,9 +270,6 @@
     <t>LT_GHICHU</t>
   </si>
   <si>
-    <t>Mã lịch thi</t>
-  </si>
-  <si>
     <t>Tên lịch thi</t>
   </si>
   <si>
@@ -402,13 +304,208 @@
   </si>
   <si>
     <t>Tiết bắt đầu học</t>
+  </si>
+  <si>
+    <t>H_ID</t>
+  </si>
+  <si>
+    <t>U_ID</t>
+  </si>
+  <si>
+    <t>GV_ID</t>
+  </si>
+  <si>
+    <t>MH_ID</t>
+  </si>
+  <si>
+    <t>L_ID</t>
+  </si>
+  <si>
+    <t>LT_ID</t>
+  </si>
+  <si>
+    <t>HT_ID</t>
+  </si>
+  <si>
+    <t>LD_ID</t>
+  </si>
+  <si>
+    <t>TLMH_ID</t>
+  </si>
+  <si>
+    <t>LTL_ID</t>
+  </si>
+  <si>
+    <t>SK_ID</t>
+  </si>
+  <si>
+    <t>CHI TIẾT KẾ HOẠCH</t>
+  </si>
+  <si>
+    <t>CTKH_ID</t>
+  </si>
+  <si>
+    <t>CTKH_NOIDUNG</t>
+  </si>
+  <si>
+    <t>KH_ID</t>
+  </si>
+  <si>
+    <t>KH_TEN</t>
+  </si>
+  <si>
+    <t>KH_NGAYCAPNHAT</t>
+  </si>
+  <si>
+    <t>TLNK_ID</t>
+  </si>
+  <si>
+    <t>NK_ID</t>
+  </si>
+  <si>
+    <t>ID User</t>
+  </si>
+  <si>
+    <t>ID nhật ký</t>
+  </si>
+  <si>
+    <t>ID tài liệu nhật ký</t>
+  </si>
+  <si>
+    <t>ID chi tiết kế hoạch</t>
+  </si>
+  <si>
+    <t>ID kế hoạch</t>
+  </si>
+  <si>
+    <t>ID giảng viên</t>
+  </si>
+  <si>
+    <t>ID loại tài liệu</t>
+  </si>
+  <si>
+    <t>ID tài liệu môn học</t>
+  </si>
+  <si>
+    <t>ID học</t>
+  </si>
+  <si>
+    <t>ID môn học</t>
+  </si>
+  <si>
+    <t>ID hình thức</t>
+  </si>
+  <si>
+    <t>ID loại điểm</t>
+  </si>
+  <si>
+    <t>ID lớp</t>
+  </si>
+  <si>
+    <t>ID lịch thi</t>
+  </si>
+  <si>
+    <t>ID hình thức thi</t>
+  </si>
+  <si>
+    <t>Tên môn học</t>
+  </si>
+  <si>
+    <t>U_GIOITINH</t>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+  </si>
+  <si>
+    <t>Giới tính User</t>
+  </si>
+  <si>
+    <t>NK_NGAY</t>
+  </si>
+  <si>
+    <t>NK_DINHKEM</t>
+  </si>
+  <si>
+    <t>BLOG</t>
+  </si>
+  <si>
+    <t>Ngày thêm tài liệu</t>
+  </si>
+  <si>
+    <t>File đính kèm</t>
+  </si>
+  <si>
+    <t>KẾ HOẠCH</t>
+  </si>
+  <si>
+    <t>Tên kế hoạch</t>
+  </si>
+  <si>
+    <t>Độ ưu tiên kế hoạch</t>
+  </si>
+  <si>
+    <t>Ngày cập nhật kế hoạch</t>
+  </si>
+  <si>
+    <t>CTKH_NGAYBD</t>
+  </si>
+  <si>
+    <t>CTKH_NGAYKT</t>
+  </si>
+  <si>
+    <t>Ngày bắt đầu kế hoạch</t>
+  </si>
+  <si>
+    <t>Ngày kết thúc kế hoạch</t>
+  </si>
+  <si>
+    <t>CTKH_DOUUTIEN</t>
+  </si>
+  <si>
+    <t>Học kỳ</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Tên</t>
+  </si>
+  <si>
+    <t>Hình ảnh</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Trắc nghiệm</t>
+  </si>
+  <si>
+    <t>Tự luận</t>
+  </si>
+  <si>
+    <t>Trắc nghiệm và tự luận</t>
+  </si>
+  <si>
+    <t>Thực hành</t>
+  </si>
+  <si>
+    <t>Hệ số 2 (45')</t>
+  </si>
+  <si>
+    <t>Hệ số 3 (Thi)</t>
+  </si>
+  <si>
+    <t>Hệ số 1 (15', Miệng)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -444,8 +541,16 @@
       <family val="1"/>
       <charset val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -455,6 +560,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE6E6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,7 +597,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -507,6 +618,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -788,10 +914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="H109" sqref="H109"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,7 +971,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>8</v>
@@ -860,12 +986,12 @@
         <v>9</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
@@ -878,15 +1004,15 @@
         <v>9</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="4"/>
@@ -896,15 +1022,15 @@
         <v>9</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="4"/>
@@ -914,12 +1040,12 @@
         <v>9</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>12</v>
@@ -932,12 +1058,12 @@
         <v>9</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>13</v>
@@ -950,12 +1076,12 @@
         <v>9</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
@@ -968,12 +1094,12 @@
         <v>9</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1011,7 +1137,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>8</v>
@@ -1026,12 +1152,12 @@
         <v>9</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>8</v>
@@ -1046,12 +1172,12 @@
         <v>9</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>12</v>
@@ -1064,15 +1190,15 @@
         <v>9</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="4"/>
@@ -1082,12 +1208,12 @@
         <v>9</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -1125,7 +1251,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>8</v>
@@ -1140,12 +1266,12 @@
         <v>9</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>8</v>
@@ -1160,15 +1286,15 @@
         <v>9</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="4"/>
@@ -1178,95 +1304,93 @@
         <v>9</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>42</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="25" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D28" s="4"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -1274,33 +1398,35 @@
         <v>9</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>46</v>
+      <c r="A29" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
       <c r="G29" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>50</v>
+      <c r="H29" s="6" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="4"/>
@@ -1310,153 +1436,167 @@
         <v>9</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-    </row>
-    <row r="33" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>44</v>
+      <c r="A35" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
+      <c r="C35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
       <c r="G35" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H35" s="6" t="s">
-        <v>48</v>
+      <c r="H35" s="3" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>54</v>
+      <c r="A36" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-    </row>
-    <row r="39" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>7</v>
+      <c r="C39" s="7"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C40" s="7"/>
       <c r="D40" s="4"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1464,71 +1604,67 @@
         <v>9</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="9"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>67</v>
+      <c r="A42" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+    </row>
+    <row r="43" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D44" s="4"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1536,57 +1672,71 @@
         <v>9</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>68</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-    </row>
-    <row r="47" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>7</v>
+      <c r="A46" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C48" s="7"/>
       <c r="D48" s="4"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1594,75 +1744,75 @@
         <v>9</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-    </row>
-    <row r="52" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+    </row>
+    <row r="51" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="G51" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="H51" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C53" s="7"/>
       <c r="D53" s="4"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -1670,75 +1820,57 @@
         <v>9</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>81</v>
+      <c r="A55" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+    </row>
+    <row r="56" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C57" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D57" s="4"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1746,57 +1878,75 @@
         <v>9</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>82</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-    </row>
-    <row r="60" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>7</v>
+      <c r="A59" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="7"/>
+      <c r="D59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="7"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C61" s="7"/>
       <c r="D61" s="4"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -1804,75 +1954,75 @@
         <v>9</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-    </row>
-    <row r="65" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+    </row>
+    <row r="64" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E64" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="F64" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="G64" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H65" s="2" t="s">
+      <c r="H64" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="4"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C66" s="7"/>
       <c r="D66" s="4"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -1880,75 +2030,75 @@
         <v>9</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C67" s="7"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-    </row>
-    <row r="70" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+    </row>
+    <row r="69" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E69" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="F69" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G70" s="2" t="s">
+      <c r="G69" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H70" s="2" t="s">
+      <c r="H69" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="4"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C71" s="7"/>
       <c r="D71" s="4"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -1956,197 +2106,197 @@
         <v>9</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C72" s="7"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-    </row>
-    <row r="75" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+    </row>
+    <row r="74" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B74" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C74" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E74" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="F74" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G75" s="2" t="s">
+      <c r="G74" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H75" s="2" t="s">
+      <c r="H74" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="4"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C76" s="7"/>
+      <c r="D76" s="4"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
       <c r="G76" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B77" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+    </row>
+    <row r="79" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B78" s="3" t="s">
+      <c r="C80" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C79" s="7"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H79" s="3" t="s">
+      <c r="C81" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-    </row>
-    <row r="82" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>7</v>
+      <c r="B82" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C83" s="7"/>
       <c r="D83" s="4"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
@@ -2154,12 +2304,12 @@
         <v>9</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -2197,10 +2347,10 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>9</v>
@@ -2212,95 +2362,95 @@
         <v>9</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B88" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+    </row>
+    <row r="90" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="4"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C89" s="7"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-    </row>
-    <row r="92" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>7</v>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C93" s="7"/>
       <c r="D93" s="4"/>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
@@ -2308,73 +2458,57 @@
         <v>9</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B94" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B95" s="8"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8"/>
+    </row>
+    <row r="96" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H95" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H96" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C97" s="4"/>
+      <c r="C97" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D97" s="4"/>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
@@ -2382,75 +2516,93 @@
         <v>9</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C98" s="7"/>
-      <c r="D98" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
       <c r="G98" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>117</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B100" s="8"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="8"/>
-      <c r="F100" s="8"/>
-      <c r="G100" s="8"/>
-      <c r="H100" s="8"/>
-    </row>
-    <row r="101" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
@@ -2458,103 +2610,75 @@
         <v>9</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C103" s="7"/>
+      <c r="D103" s="4"/>
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
       <c r="G103" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H104" s="3" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B105" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H105" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H106" s="3" t="s">
-        <v>105</v>
+      <c r="B105" s="8"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="8"/>
+    </row>
+    <row r="106" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C107" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D107" s="4"/>
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
@@ -2562,65 +2686,366 @@
         <v>9</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C108" s="7"/>
-      <c r="D108" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
       <c r="G108" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>124</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="5" t="s">
-        <v>120</v>
+      <c r="A109" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="B109" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B112" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C109" s="6"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6"/>
-      <c r="G109" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H109" s="6" t="s">
-        <v>125</v>
+      <c r="C112" s="7"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113" s="7"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H114" s="6" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A91:H91"/>
-    <mergeCell ref="A100:H100"/>
-    <mergeCell ref="A64:H64"/>
-    <mergeCell ref="A69:H69"/>
-    <mergeCell ref="A74:H74"/>
-    <mergeCell ref="A81:H81"/>
-    <mergeCell ref="A85:H85"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A46:H46"/>
-    <mergeCell ref="A51:H51"/>
-    <mergeCell ref="A59:H59"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A11:H11"/>
     <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="A50:H50"/>
+    <mergeCell ref="A55:H55"/>
+    <mergeCell ref="A63:H63"/>
+    <mergeCell ref="A95:H95"/>
+    <mergeCell ref="A105:H105"/>
+    <mergeCell ref="A68:H68"/>
+    <mergeCell ref="A73:H73"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="A89:H89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="12"/>
+    <col min="2" max="2" width="29.5703125" style="12" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="12"/>
+    <col min="2" max="2" width="26.5703125" style="12" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="12"/>
+    <col min="2" max="2" width="18.140625" style="12" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>